--- a/NformTester/NformTester/Keywordscripts/900.30.140_GadgetDisplayInformationInCorrespondingState.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.30.140_GadgetDisplayInformationInCorrespondingState.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7332" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7332" uniqueCount="824">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3688,6 +3688,10 @@
   <si>
     <t>;1. Device status list gadget should provide active links for the listed devices and allow user to click on a device in the list that will display the navigation view for the selected device.
 2. Image icon for "View in browser" should reflect.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -4688,8 +4692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5618,7 +5622,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>772</v>
+        <v>823</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>18</v>

--- a/NformTester/NformTester/Keywordscripts/900.30.140_GadgetDisplayInformationInCorrespondingState.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.30.140_GadgetDisplayInformationInCorrespondingState.xlsx
@@ -3601,9 +3601,6 @@
     <t>Running Range</t>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
@@ -3638,9 +3635,6 @@
   </si>
   <si>
     <t>;Add some devices.</t>
-  </si>
-  <si>
-    <t>$SNMP_GXT_1$</t>
   </si>
   <si>
     <t>Pass</t>
@@ -3696,6 +3690,14 @@
   </si>
   <si>
     <t>;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4692,8 +4694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4714,46 +4716,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>801</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>802</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>803</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>806</v>
-      </c>
       <c r="I1" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="O1" s="1"/>
     </row>
@@ -4787,7 +4789,7 @@
         <v>787</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C3" s="12">
         <v>2</v>
@@ -4859,7 +4861,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -4884,7 +4886,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -4909,7 +4911,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -4944,11 +4946,11 @@
       <c r="H8" s="12" t="s">
         <v>775</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>809</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>796</v>
+      <c r="I8" s="25" t="s">
+        <v>822</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>823</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>776</v>
@@ -4964,16 +4966,16 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C9" s="12">
         <v>8</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>756</v>
@@ -5015,10 +5017,10 @@
         <v>775</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>776</v>
@@ -5039,7 +5041,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -5131,8 +5133,8 @@
       <c r="G14" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>796</v>
+      <c r="H14" s="25" t="s">
+        <v>823</v>
       </c>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
@@ -5180,7 +5182,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="25"/>
@@ -5273,7 +5275,7 @@
         <v>59</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
@@ -5323,7 +5325,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="25"/>
@@ -5398,7 +5400,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>19</v>
@@ -5409,8 +5411,8 @@
       <c r="G24" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>796</v>
+      <c r="H24" s="25" t="s">
+        <v>823</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -5427,7 +5429,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>19</v>
@@ -5439,7 +5441,7 @@
         <v>60</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -5481,7 +5483,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="25"/>
@@ -5511,8 +5513,8 @@
       <c r="G28" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H28" s="12" t="s">
-        <v>796</v>
+      <c r="H28" s="25" t="s">
+        <v>823</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="12"/>
@@ -5538,7 +5540,7 @@
         <v>59</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -5600,7 +5602,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>756</v>
@@ -5622,7 +5624,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>18</v>
@@ -5646,7 +5648,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="25"/>
@@ -5692,7 +5694,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>756</v>
@@ -5766,7 +5768,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>756</v>
@@ -5788,7 +5790,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
@@ -5807,7 +5809,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
